--- a/biology/Médecine/1184_en_santé_et_médecine/1184_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1184_en_santé_et_médecine/1184_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1184_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1184_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1184 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1184_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1184_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pierre d'Amiens, seigneur de Flixecourt, Vignacourt et autres lieux, donne un fief situé entre Vaux et Flesselles, acte qui peut être tenu pour fondateur de l'hôpital Saint-Jean d'Amiens[1],[2].
-Avant 1184 : fondation de la maladrerie de Saint-Florentin, en Bourgogne[3].
-1181-1184 : fondation à Paris de l'hôpital des pauvres de Sainte-Opportune, dont la première mention datera de 1188 et qui sera renommé hôpital Sainte-Catherine en 1222[4],[5],[6].
-1184-1185 : fondation de l'hôpital du pont du Rhône, qui est à l'origine de l'Hôtel-Dieu de Lyon[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pierre d'Amiens, seigneur de Flixecourt, Vignacourt et autres lieux, donne un fief situé entre Vaux et Flesselles, acte qui peut être tenu pour fondateur de l'hôpital Saint-Jean d'Amiens,.
+Avant 1184 : fondation de la maladrerie de Saint-Florentin, en Bourgogne.
+1181-1184 : fondation à Paris de l'hôpital des pauvres de Sainte-Opportune, dont la première mention datera de 1188 et qui sera renommé hôpital Sainte-Catherine en 1222.
+1184-1185 : fondation de l'hôpital du pont du Rhône, qui est à l'origine de l'Hôtel-Dieu de Lyon.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1184_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1184_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1173-1184 : fl.  Guillaume Pons, médecin à Montpellier[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1173-1184 : fl.  Guillaume Pons, médecin à Montpellier.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1184_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1184_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gilles de Portugal ou de Santarem (mort en 1245 au plus tôt), dominicain, prieur provincial d'Espagne, étudia la médecine à Paris, auteur d'une traduction latine de Rhazès et d'au moins un autre ouvrage à caractère médical[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gilles de Portugal ou de Santarem (mort en 1245 au plus tôt), dominicain, prieur provincial d'Espagne, étudia la médecine à Paris, auteur d'une traduction latine de Rhazès et d'au moins un autre ouvrage à caractère médical.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1184_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1184_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abou'l-Bayan Ebn al-Modawwar al-Sedid (né en 1101), médecin karaïte du Caire au service de Saladin[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abou'l-Bayan Ebn al-Modawwar al-Sedid (né en 1101), médecin karaïte du Caire au service de Saladin.
 </t>
         </is>
       </c>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1184_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1184_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Louis Doüet d'Arcq, « Victor de Beauvillé, Recueil de documents inédits concernant la Picardie, Paris, impr. impériale, 1860 compte rendu », Bibliothèque de l'école des chartes, vol. 22,‎ 1861, p. 291 (lire en ligne).
